--- a/output squares met verschillende groottes.xlsx
+++ b/output squares met verschillende groottes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="21735" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="345" windowWidth="20730" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
     <sheet name="avg" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -38,8 +38,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,38 +545,55 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3216,6 +3233,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5856,6 +5874,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8496,6 +8515,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -11136,43 +11156,64 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="55117696"/>
-        <c:axId val="55216000"/>
+        <c:smooth val="0"/>
+        <c:axId val="90159744"/>
+        <c:axId val="90165632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55117696"/>
+        <c:axId val="90159744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55216000"/>
+        <c:crossAx val="90165632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55216000"/>
+        <c:axId val="90165632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55117696"/>
+        <c:crossAx val="90159744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -11184,12 +11225,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -13829,6 +13882,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -16469,6 +16523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -19109,6 +19164,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -21749,35 +21805,52 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="110348160"/>
-        <c:axId val="115863552"/>
+        <c:smooth val="0"/>
+        <c:axId val="91462656"/>
+        <c:axId val="91476736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110348160"/>
+        <c:axId val="91462656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115863552"/>
+        <c:crossAx val="91476736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115863552"/>
+        <c:axId val="91476736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110348160"/>
+        <c:crossAx val="91462656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21785,8 +21858,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -21841,10 +21917,10 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21867,9 +21943,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -21907,7 +21983,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -21941,6 +22017,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -21975,9 +22052,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22150,16 +22228,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E435"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I426" sqref="I426"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22176,7 +22254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -22193,7 +22271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -22210,7 +22288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -22227,7 +22305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -22244,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -22261,7 +22339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -22278,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -22295,7 +22373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -22312,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -22329,7 +22407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -22346,7 +22424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -22363,7 +22441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -22380,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -22397,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -22414,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -22431,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -22448,7 +22526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
@@ -22465,7 +22543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
@@ -22482,7 +22560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
@@ -22499,7 +22577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190</v>
       </c>
@@ -22516,7 +22594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
@@ -22533,7 +22611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210</v>
       </c>
@@ -22550,7 +22628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>220</v>
       </c>
@@ -22567,7 +22645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230</v>
       </c>
@@ -22584,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>240</v>
       </c>
@@ -22601,7 +22679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>250</v>
       </c>
@@ -22618,7 +22696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>260</v>
       </c>
@@ -22635,7 +22713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>270</v>
       </c>
@@ -22652,7 +22730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>280</v>
       </c>
@@ -22669,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>290</v>
       </c>
@@ -22686,7 +22764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
@@ -22703,7 +22781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310</v>
       </c>
@@ -22720,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>320</v>
       </c>
@@ -22737,7 +22815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330</v>
       </c>
@@ -22754,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>340</v>
       </c>
@@ -22771,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>350</v>
       </c>
@@ -22788,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>360</v>
       </c>
@@ -22805,7 +22883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>370</v>
       </c>
@@ -22822,7 +22900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>380</v>
       </c>
@@ -22839,7 +22917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>390</v>
       </c>
@@ -22856,7 +22934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>400</v>
       </c>
@@ -22873,7 +22951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>410</v>
       </c>
@@ -22890,7 +22968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>420</v>
       </c>
@@ -22907,7 +22985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>430</v>
       </c>
@@ -22924,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>440</v>
       </c>
@@ -22941,7 +23019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>450</v>
       </c>
@@ -22958,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>460</v>
       </c>
@@ -22975,7 +23053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>470</v>
       </c>
@@ -22992,7 +23070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>480</v>
       </c>
@@ -23009,7 +23087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>490</v>
       </c>
@@ -23026,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>500</v>
       </c>
@@ -23043,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>510</v>
       </c>
@@ -23060,7 +23138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>520</v>
       </c>
@@ -23077,7 +23155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>530</v>
       </c>
@@ -23094,7 +23172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>540</v>
       </c>
@@ -23111,7 +23189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>550</v>
       </c>
@@ -23128,7 +23206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>560</v>
       </c>
@@ -23145,7 +23223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>570</v>
       </c>
@@ -23162,7 +23240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>580</v>
       </c>
@@ -23179,7 +23257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>590</v>
       </c>
@@ -23196,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>600</v>
       </c>
@@ -23213,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>610</v>
       </c>
@@ -23230,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>620</v>
       </c>
@@ -23247,7 +23325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>630</v>
       </c>
@@ -23264,7 +23342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>640</v>
       </c>
@@ -23281,7 +23359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>650</v>
       </c>
@@ -23298,7 +23376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>660</v>
       </c>
@@ -23315,7 +23393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>670</v>
       </c>
@@ -23332,7 +23410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>680</v>
       </c>
@@ -23349,7 +23427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>690</v>
       </c>
@@ -23366,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>700</v>
       </c>
@@ -23383,7 +23461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>710</v>
       </c>
@@ -23400,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>720</v>
       </c>
@@ -23417,7 +23495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>730</v>
       </c>
@@ -23434,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>740</v>
       </c>
@@ -23451,7 +23529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>750</v>
       </c>
@@ -23468,7 +23546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>760</v>
       </c>
@@ -23485,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>770</v>
       </c>
@@ -23502,7 +23580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>780</v>
       </c>
@@ -23519,7 +23597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>790</v>
       </c>
@@ -23536,7 +23614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>800</v>
       </c>
@@ -23553,7 +23631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>810</v>
       </c>
@@ -23570,7 +23648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>820</v>
       </c>
@@ -23587,7 +23665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>830</v>
       </c>
@@ -23604,7 +23682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>840</v>
       </c>
@@ -23621,7 +23699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>850</v>
       </c>
@@ -23638,7 +23716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>860</v>
       </c>
@@ -23655,7 +23733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>870</v>
       </c>
@@ -23672,7 +23750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>880</v>
       </c>
@@ -23689,7 +23767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>890</v>
       </c>
@@ -23706,7 +23784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>900</v>
       </c>
@@ -23723,7 +23801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>910</v>
       </c>
@@ -23740,7 +23818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>920</v>
       </c>
@@ -23757,7 +23835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>930</v>
       </c>
@@ -23774,7 +23852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>940</v>
       </c>
@@ -23791,7 +23869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>950</v>
       </c>
@@ -23808,7 +23886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>960</v>
       </c>
@@ -23825,7 +23903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>970</v>
       </c>
@@ -23842,7 +23920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>980</v>
       </c>
@@ -23859,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>990</v>
       </c>
@@ -23876,7 +23954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1000</v>
       </c>
@@ -23893,7 +23971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1010</v>
       </c>
@@ -23910,7 +23988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1020</v>
       </c>
@@ -23927,7 +24005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1030</v>
       </c>
@@ -23944,7 +24022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1040</v>
       </c>
@@ -23961,7 +24039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1050</v>
       </c>
@@ -23978,7 +24056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1060</v>
       </c>
@@ -23995,7 +24073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1070</v>
       </c>
@@ -24012,7 +24090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1080</v>
       </c>
@@ -24029,7 +24107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1090</v>
       </c>
@@ -24046,7 +24124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1100</v>
       </c>
@@ -24063,7 +24141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1110</v>
       </c>
@@ -24080,7 +24158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1120</v>
       </c>
@@ -24097,7 +24175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1130</v>
       </c>
@@ -24114,7 +24192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1140</v>
       </c>
@@ -24131,7 +24209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1150</v>
       </c>
@@ -24148,7 +24226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1160</v>
       </c>
@@ -24165,7 +24243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1170</v>
       </c>
@@ -24182,7 +24260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1180</v>
       </c>
@@ -24199,7 +24277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1190</v>
       </c>
@@ -24216,7 +24294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1200</v>
       </c>
@@ -24233,7 +24311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1210</v>
       </c>
@@ -24250,7 +24328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1220</v>
       </c>
@@ -24267,7 +24345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1230</v>
       </c>
@@ -24284,7 +24362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1240</v>
       </c>
@@ -24301,7 +24379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1250</v>
       </c>
@@ -24318,7 +24396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1260</v>
       </c>
@@ -24335,7 +24413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1270</v>
       </c>
@@ -24352,7 +24430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1280</v>
       </c>
@@ -24369,7 +24447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1290</v>
       </c>
@@ -24386,7 +24464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1300</v>
       </c>
@@ -24403,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1310</v>
       </c>
@@ -24420,7 +24498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1320</v>
       </c>
@@ -24437,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1330</v>
       </c>
@@ -24454,7 +24532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1340</v>
       </c>
@@ -24471,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1350</v>
       </c>
@@ -24488,7 +24566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1360</v>
       </c>
@@ -24505,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1370</v>
       </c>
@@ -24522,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1380</v>
       </c>
@@ -24539,7 +24617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1390</v>
       </c>
@@ -24556,7 +24634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1400</v>
       </c>
@@ -24573,7 +24651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1410</v>
       </c>
@@ -24590,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1420</v>
       </c>
@@ -24607,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1430</v>
       </c>
@@ -24624,7 +24702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1440</v>
       </c>
@@ -24641,7 +24719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1450</v>
       </c>
@@ -24658,7 +24736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1460</v>
       </c>
@@ -24675,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1470</v>
       </c>
@@ -24692,7 +24770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1480</v>
       </c>
@@ -24709,7 +24787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1490</v>
       </c>
@@ -24726,7 +24804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1500</v>
       </c>
@@ -24743,7 +24821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1510</v>
       </c>
@@ -24760,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1520</v>
       </c>
@@ -24777,7 +24855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1530</v>
       </c>
@@ -24794,7 +24872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1540</v>
       </c>
@@ -24811,7 +24889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1550</v>
       </c>
@@ -24828,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1560</v>
       </c>
@@ -24845,7 +24923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1570</v>
       </c>
@@ -24862,7 +24940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1580</v>
       </c>
@@ -24879,7 +24957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1590</v>
       </c>
@@ -24896,7 +24974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1600</v>
       </c>
@@ -24913,7 +24991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1610</v>
       </c>
@@ -24930,7 +25008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1620</v>
       </c>
@@ -24947,7 +25025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1630</v>
       </c>
@@ -24964,7 +25042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1640</v>
       </c>
@@ -24981,7 +25059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1650</v>
       </c>
@@ -24998,7 +25076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1660</v>
       </c>
@@ -25015,7 +25093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1670</v>
       </c>
@@ -25032,7 +25110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1680</v>
       </c>
@@ -25049,7 +25127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1690</v>
       </c>
@@ -25066,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1700</v>
       </c>
@@ -25083,7 +25161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1710</v>
       </c>
@@ -25100,7 +25178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1720</v>
       </c>
@@ -25117,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1730</v>
       </c>
@@ -25134,7 +25212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1740</v>
       </c>
@@ -25151,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1750</v>
       </c>
@@ -25168,7 +25246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1760</v>
       </c>
@@ -25185,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1770</v>
       </c>
@@ -25202,7 +25280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1780</v>
       </c>
@@ -25219,7 +25297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1790</v>
       </c>
@@ -25236,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1800</v>
       </c>
@@ -25253,7 +25331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1810</v>
       </c>
@@ -25270,7 +25348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1820</v>
       </c>
@@ -25287,7 +25365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1830</v>
       </c>
@@ -25304,7 +25382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1840</v>
       </c>
@@ -25321,7 +25399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1850</v>
       </c>
@@ -25338,7 +25416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1860</v>
       </c>
@@ -25355,7 +25433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1870</v>
       </c>
@@ -25372,7 +25450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1880</v>
       </c>
@@ -25389,7 +25467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1890</v>
       </c>
@@ -25406,7 +25484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1900</v>
       </c>
@@ -25423,7 +25501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1910</v>
       </c>
@@ -25440,7 +25518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1920</v>
       </c>
@@ -25457,7 +25535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1930</v>
       </c>
@@ -25474,7 +25552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1940</v>
       </c>
@@ -25491,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1950</v>
       </c>
@@ -25508,7 +25586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1960</v>
       </c>
@@ -25525,7 +25603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1970</v>
       </c>
@@ -25542,7 +25620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1980</v>
       </c>
@@ -25559,7 +25637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1990</v>
       </c>
@@ -25576,7 +25654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2000</v>
       </c>
@@ -25593,7 +25671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2010</v>
       </c>
@@ -25610,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2020</v>
       </c>
@@ -25627,7 +25705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2030</v>
       </c>
@@ -25644,7 +25722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2040</v>
       </c>
@@ -25661,7 +25739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2050</v>
       </c>
@@ -25678,7 +25756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2060</v>
       </c>
@@ -25695,7 +25773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2070</v>
       </c>
@@ -25712,7 +25790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2080</v>
       </c>
@@ -25729,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2090</v>
       </c>
@@ -25746,7 +25824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2100</v>
       </c>
@@ -25763,7 +25841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2110</v>
       </c>
@@ -25780,7 +25858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2120</v>
       </c>
@@ -25797,7 +25875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2130</v>
       </c>
@@ -25814,7 +25892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2140</v>
       </c>
@@ -25831,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2150</v>
       </c>
@@ -25848,7 +25926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2160</v>
       </c>
@@ -25865,7 +25943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2170</v>
       </c>
@@ -25882,7 +25960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2180</v>
       </c>
@@ -25899,7 +25977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2190</v>
       </c>
@@ -25916,7 +25994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2200</v>
       </c>
@@ -25933,7 +26011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2210</v>
       </c>
@@ -25950,7 +26028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2220</v>
       </c>
@@ -25967,7 +26045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2230</v>
       </c>
@@ -25984,7 +26062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2240</v>
       </c>
@@ -26001,7 +26079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2250</v>
       </c>
@@ -26018,7 +26096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2260</v>
       </c>
@@ -26035,7 +26113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2270</v>
       </c>
@@ -26052,7 +26130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2280</v>
       </c>
@@ -26069,7 +26147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2290</v>
       </c>
@@ -26086,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2300</v>
       </c>
@@ -26103,7 +26181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2310</v>
       </c>
@@ -26120,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2320</v>
       </c>
@@ -26137,7 +26215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2330</v>
       </c>
@@ -26154,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2340</v>
       </c>
@@ -26171,7 +26249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2350</v>
       </c>
@@ -26188,7 +26266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2360</v>
       </c>
@@ -26205,7 +26283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2370</v>
       </c>
@@ -26222,7 +26300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2380</v>
       </c>
@@ -26239,7 +26317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2390</v>
       </c>
@@ -26256,7 +26334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2400</v>
       </c>
@@ -26273,7 +26351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2410</v>
       </c>
@@ -26290,7 +26368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2420</v>
       </c>
@@ -26307,7 +26385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2430</v>
       </c>
@@ -26324,7 +26402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2440</v>
       </c>
@@ -26341,7 +26419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2450</v>
       </c>
@@ -26358,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2460</v>
       </c>
@@ -26375,7 +26453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2470</v>
       </c>
@@ -26392,7 +26470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2480</v>
       </c>
@@ -26409,7 +26487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2490</v>
       </c>
@@ -26426,7 +26504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2500</v>
       </c>
@@ -26443,7 +26521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2510</v>
       </c>
@@ -26460,7 +26538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2520</v>
       </c>
@@ -26477,7 +26555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2530</v>
       </c>
@@ -26494,7 +26572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2540</v>
       </c>
@@ -26511,7 +26589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2550</v>
       </c>
@@ -26528,7 +26606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2560</v>
       </c>
@@ -26545,7 +26623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2570</v>
       </c>
@@ -26562,7 +26640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2580</v>
       </c>
@@ -26579,7 +26657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2590</v>
       </c>
@@ -26596,7 +26674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2600</v>
       </c>
@@ -26613,7 +26691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2610</v>
       </c>
@@ -26630,7 +26708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2620</v>
       </c>
@@ -26647,7 +26725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2630</v>
       </c>
@@ -26664,7 +26742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2640</v>
       </c>
@@ -26681,7 +26759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2650</v>
       </c>
@@ -26698,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2660</v>
       </c>
@@ -26715,7 +26793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2670</v>
       </c>
@@ -26732,7 +26810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2680</v>
       </c>
@@ -26749,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2690</v>
       </c>
@@ -26766,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2700</v>
       </c>
@@ -26783,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2710</v>
       </c>
@@ -26800,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2720</v>
       </c>
@@ -26817,7 +26895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2730</v>
       </c>
@@ -26834,7 +26912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2740</v>
       </c>
@@ -26851,7 +26929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2750</v>
       </c>
@@ -26868,7 +26946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2760</v>
       </c>
@@ -26885,7 +26963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2770</v>
       </c>
@@ -26902,7 +26980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2780</v>
       </c>
@@ -26919,7 +26997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2790</v>
       </c>
@@ -26936,7 +27014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2800</v>
       </c>
@@ -26953,7 +27031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2810</v>
       </c>
@@ -26970,7 +27048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2820</v>
       </c>
@@ -26987,7 +27065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2830</v>
       </c>
@@ -27004,7 +27082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2840</v>
       </c>
@@ -27021,7 +27099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2850</v>
       </c>
@@ -27038,7 +27116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2860</v>
       </c>
@@ -27055,7 +27133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2870</v>
       </c>
@@ -27072,7 +27150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2880</v>
       </c>
@@ -27089,7 +27167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2890</v>
       </c>
@@ -27106,7 +27184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2900</v>
       </c>
@@ -27123,7 +27201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2910</v>
       </c>
@@ -27140,7 +27218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2920</v>
       </c>
@@ -27157,7 +27235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2930</v>
       </c>
@@ -27174,7 +27252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2940</v>
       </c>
@@ -27191,7 +27269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2950</v>
       </c>
@@ -27208,7 +27286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2960</v>
       </c>
@@ -27225,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2970</v>
       </c>
@@ -27242,7 +27320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2980</v>
       </c>
@@ -27259,7 +27337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2990</v>
       </c>
@@ -27276,7 +27354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3000</v>
       </c>
@@ -27293,7 +27371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3010</v>
       </c>
@@ -27310,7 +27388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3020</v>
       </c>
@@ -27327,7 +27405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3030</v>
       </c>
@@ -27344,7 +27422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3040</v>
       </c>
@@ -27361,7 +27439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>3050</v>
       </c>
@@ -27378,7 +27456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3060</v>
       </c>
@@ -27395,7 +27473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3070</v>
       </c>
@@ -27412,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3080</v>
       </c>
@@ -27429,7 +27507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>3090</v>
       </c>
@@ -27446,7 +27524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3100</v>
       </c>
@@ -27463,7 +27541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3110</v>
       </c>
@@ -27480,7 +27558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3120</v>
       </c>
@@ -27497,7 +27575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3130</v>
       </c>
@@ -27514,7 +27592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3140</v>
       </c>
@@ -27531,7 +27609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3150</v>
       </c>
@@ -27548,7 +27626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3160</v>
       </c>
@@ -27565,7 +27643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3170</v>
       </c>
@@ -27582,7 +27660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3180</v>
       </c>
@@ -27599,7 +27677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3190</v>
       </c>
@@ -27616,7 +27694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3200</v>
       </c>
@@ -27633,7 +27711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3210</v>
       </c>
@@ -27650,7 +27728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>3220</v>
       </c>
@@ -27667,7 +27745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3230</v>
       </c>
@@ -27684,7 +27762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3240</v>
       </c>
@@ -27701,7 +27779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3250</v>
       </c>
@@ -27718,7 +27796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3260</v>
       </c>
@@ -27735,7 +27813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3270</v>
       </c>
@@ -27752,7 +27830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>3280</v>
       </c>
@@ -27769,7 +27847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3290</v>
       </c>
@@ -27786,7 +27864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>3300</v>
       </c>
@@ -27803,7 +27881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3310</v>
       </c>
@@ -27820,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3320</v>
       </c>
@@ -27837,7 +27915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>3330</v>
       </c>
@@ -27854,7 +27932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>3340</v>
       </c>
@@ -27871,7 +27949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3350</v>
       </c>
@@ -27888,7 +27966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3360</v>
       </c>
@@ -27905,7 +27983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>3370</v>
       </c>
@@ -27922,7 +28000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3380</v>
       </c>
@@ -27939,7 +28017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3390</v>
       </c>
@@ -27956,7 +28034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3400</v>
       </c>
@@ -27973,7 +28051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>3410</v>
       </c>
@@ -27990,7 +28068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3420</v>
       </c>
@@ -28007,7 +28085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>3430</v>
       </c>
@@ -28024,7 +28102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3440</v>
       </c>
@@ -28041,7 +28119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>3450</v>
       </c>
@@ -28058,7 +28136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>3460</v>
       </c>
@@ -28075,7 +28153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3470</v>
       </c>
@@ -28092,7 +28170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3480</v>
       </c>
@@ -28109,7 +28187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3490</v>
       </c>
@@ -28126,7 +28204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3500</v>
       </c>
@@ -28143,7 +28221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>3510</v>
       </c>
@@ -28160,7 +28238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3520</v>
       </c>
@@ -28177,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3530</v>
       </c>
@@ -28194,7 +28272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3540</v>
       </c>
@@ -28211,7 +28289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>3550</v>
       </c>
@@ -28228,7 +28306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3560</v>
       </c>
@@ -28245,7 +28323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3570</v>
       </c>
@@ -28262,7 +28340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>3580</v>
       </c>
@@ -28279,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3590</v>
       </c>
@@ -28296,7 +28374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3600</v>
       </c>
@@ -28313,7 +28391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>3610</v>
       </c>
@@ -28330,7 +28408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3620</v>
       </c>
@@ -28347,7 +28425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>3630</v>
       </c>
@@ -28364,7 +28442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>3640</v>
       </c>
@@ -28381,7 +28459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>3650</v>
       </c>
@@ -28398,7 +28476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>3660</v>
       </c>
@@ -28415,7 +28493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>3670</v>
       </c>
@@ -28432,7 +28510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3680</v>
       </c>
@@ -28449,7 +28527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>3690</v>
       </c>
@@ -28466,7 +28544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>3700</v>
       </c>
@@ -28483,7 +28561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>3710</v>
       </c>
@@ -28500,7 +28578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>3720</v>
       </c>
@@ -28517,7 +28595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>3730</v>
       </c>
@@ -28534,7 +28612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3740</v>
       </c>
@@ -28551,7 +28629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3750</v>
       </c>
@@ -28568,7 +28646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3760</v>
       </c>
@@ -28585,7 +28663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3770</v>
       </c>
@@ -28602,7 +28680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3780</v>
       </c>
@@ -28619,7 +28697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3790</v>
       </c>
@@ -28636,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>3800</v>
       </c>
@@ -28653,7 +28731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3810</v>
       </c>
@@ -28670,7 +28748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>3820</v>
       </c>
@@ -28687,7 +28765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3830</v>
       </c>
@@ -28704,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3840</v>
       </c>
@@ -28721,7 +28799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>3850</v>
       </c>
@@ -28738,7 +28816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>3860</v>
       </c>
@@ -28755,7 +28833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3870</v>
       </c>
@@ -28772,7 +28850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>3880</v>
       </c>
@@ -28789,7 +28867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3890</v>
       </c>
@@ -28806,7 +28884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>3900</v>
       </c>
@@ -28823,7 +28901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>3910</v>
       </c>
@@ -28840,7 +28918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>3920</v>
       </c>
@@ -28857,7 +28935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>3930</v>
       </c>
@@ -28874,7 +28952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>3940</v>
       </c>
@@ -28891,7 +28969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>3950</v>
       </c>
@@ -28908,7 +28986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>3960</v>
       </c>
@@ -28925,7 +29003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>3970</v>
       </c>
@@ -28942,7 +29020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3980</v>
       </c>
@@ -28959,7 +29037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>3990</v>
       </c>
@@ -28976,7 +29054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>4000</v>
       </c>
@@ -28993,7 +29071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4010</v>
       </c>
@@ -29010,7 +29088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>4020</v>
       </c>
@@ -29027,7 +29105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>4030</v>
       </c>
@@ -29044,7 +29122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>4040</v>
       </c>
@@ -29061,7 +29139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>4050</v>
       </c>
@@ -29078,7 +29156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>4060</v>
       </c>
@@ -29095,7 +29173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>4070</v>
       </c>
@@ -29112,7 +29190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4080</v>
       </c>
@@ -29129,7 +29207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>4090</v>
       </c>
@@ -29146,7 +29224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>4100</v>
       </c>
@@ -29163,7 +29241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4110</v>
       </c>
@@ -29180,7 +29258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>4120</v>
       </c>
@@ -29197,7 +29275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4130</v>
       </c>
@@ -29214,7 +29292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>4140</v>
       </c>
@@ -29231,7 +29309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>4150</v>
       </c>
@@ -29248,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4160</v>
       </c>
@@ -29265,7 +29343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4170</v>
       </c>
@@ -29282,7 +29360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>4180</v>
       </c>
@@ -29299,7 +29377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>4190</v>
       </c>
@@ -29316,7 +29394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4200</v>
       </c>
@@ -29333,7 +29411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>4210</v>
       </c>
@@ -29350,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>4220</v>
       </c>
@@ -29367,7 +29445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>4230</v>
       </c>
@@ -29384,7 +29462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4240</v>
       </c>
@@ -29401,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>4250</v>
       </c>
@@ -29418,7 +29496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>4260</v>
       </c>
@@ -29435,7 +29513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>4270</v>
       </c>
@@ -29452,7 +29530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>4280</v>
       </c>
@@ -29469,7 +29547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>4290</v>
       </c>
@@ -29486,7 +29564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4300</v>
       </c>
@@ -29503,7 +29581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4310</v>
       </c>
@@ -29520,7 +29598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>4320</v>
       </c>
@@ -29537,7 +29615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>4330</v>
       </c>
@@ -29561,16 +29639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="AE35" sqref="AE35"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B368" sqref="B368:E368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29587,7 +29665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -29607,7 +29685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -29624,7 +29702,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -29641,7 +29719,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -29658,7 +29736,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -29675,7 +29753,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -29692,7 +29770,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -29709,7 +29787,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -29726,7 +29804,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -29743,7 +29821,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -29760,7 +29838,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -29777,7 +29855,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -29794,7 +29872,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -29811,7 +29889,7 @@
         <v>1.3076920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -29831,7 +29909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -29848,7 +29926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -29865,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
@@ -29882,7 +29960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
@@ -29899,7 +29977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
@@ -29916,7 +29994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190</v>
       </c>
@@ -29933,7 +30011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
@@ -29950,7 +30028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210</v>
       </c>
@@ -29967,7 +30045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>220</v>
       </c>
@@ -29984,7 +30062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>230</v>
       </c>
@@ -30001,7 +30079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>240</v>
       </c>
@@ -30018,7 +30096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>250</v>
       </c>
@@ -30035,7 +30113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>260</v>
       </c>
@@ -30052,7 +30130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>270</v>
       </c>
@@ -30069,7 +30147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>280</v>
       </c>
@@ -30086,7 +30164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>290</v>
       </c>
@@ -30103,7 +30181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
@@ -30120,7 +30198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>310</v>
       </c>
@@ -30137,7 +30215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>320</v>
       </c>
@@ -30154,7 +30232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330</v>
       </c>
@@ -30171,7 +30249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>340</v>
       </c>
@@ -30188,7 +30266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>350</v>
       </c>
@@ -30205,7 +30283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>360</v>
       </c>
@@ -30222,7 +30300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>370</v>
       </c>
@@ -30239,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>380</v>
       </c>
@@ -30256,7 +30334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>390</v>
       </c>
@@ -30273,7 +30351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>400</v>
       </c>
@@ -30290,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>410</v>
       </c>
@@ -30307,7 +30385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>420</v>
       </c>
@@ -30324,7 +30402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>430</v>
       </c>
@@ -30341,7 +30419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>440</v>
       </c>
@@ -30358,7 +30436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>450</v>
       </c>
@@ -30375,7 +30453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>460</v>
       </c>
@@ -30392,7 +30470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>470</v>
       </c>
@@ -30409,7 +30487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>480</v>
       </c>
@@ -30426,7 +30504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>490</v>
       </c>
@@ -30443,7 +30521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>500</v>
       </c>
@@ -30460,7 +30538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>510</v>
       </c>
@@ -30477,7 +30555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>520</v>
       </c>
@@ -30494,7 +30572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>530</v>
       </c>
@@ -30511,7 +30589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>540</v>
       </c>
@@ -30531,7 +30609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>550</v>
       </c>
@@ -30548,7 +30626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>560</v>
       </c>
@@ -30565,7 +30643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>570</v>
       </c>
@@ -30582,7 +30660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>580</v>
       </c>
@@ -30599,7 +30677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>590</v>
       </c>
@@ -30616,7 +30694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>600</v>
       </c>
@@ -30633,7 +30711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>610</v>
       </c>
@@ -30650,7 +30728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>620</v>
       </c>
@@ -30667,7 +30745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>630</v>
       </c>
@@ -30684,7 +30762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>640</v>
       </c>
@@ -30701,7 +30779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>650</v>
       </c>
@@ -30718,7 +30796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>660</v>
       </c>
@@ -30735,7 +30813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>670</v>
       </c>
@@ -30752,7 +30830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>680</v>
       </c>
@@ -30769,7 +30847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>690</v>
       </c>
@@ -30786,7 +30864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>700</v>
       </c>
@@ -30803,7 +30881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>710</v>
       </c>
@@ -30820,7 +30898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>720</v>
       </c>
@@ -30837,7 +30915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>730</v>
       </c>
@@ -30854,7 +30932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>740</v>
       </c>
@@ -30871,7 +30949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>750</v>
       </c>
@@ -30903,7 +30981,7 @@
         <v>5.1153850000000025</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>760</v>
       </c>
@@ -30920,7 +30998,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>770</v>
       </c>
@@ -30937,7 +31015,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>780</v>
       </c>
@@ -30954,7 +31032,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>790</v>
       </c>
@@ -30971,7 +31049,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>800</v>
       </c>
@@ -30988,7 +31066,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>810</v>
       </c>
@@ -31005,7 +31083,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>820</v>
       </c>
@@ -31022,7 +31100,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>830</v>
       </c>
@@ -31039,7 +31117,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>840</v>
       </c>
@@ -31056,7 +31134,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>850</v>
       </c>
@@ -31073,7 +31151,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>860</v>
       </c>
@@ -31090,7 +31168,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>870</v>
       </c>
@@ -31107,7 +31185,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>880</v>
       </c>
@@ -31124,7 +31202,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>890</v>
       </c>
@@ -31141,7 +31219,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>900</v>
       </c>
@@ -31158,7 +31236,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>910</v>
       </c>
@@ -31175,7 +31253,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>920</v>
       </c>
@@ -31192,7 +31270,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>930</v>
       </c>
@@ -31209,7 +31287,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>940</v>
       </c>
@@ -31226,7 +31304,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>950</v>
       </c>
@@ -31243,7 +31321,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>960</v>
       </c>
@@ -31260,7 +31338,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>970</v>
       </c>
@@ -31277,7 +31355,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>980</v>
       </c>
@@ -31294,7 +31372,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>990</v>
       </c>
@@ -31311,7 +31389,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1000</v>
       </c>
@@ -31328,7 +31406,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1010</v>
       </c>
@@ -31345,7 +31423,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1020</v>
       </c>
@@ -31362,7 +31440,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1030</v>
       </c>
@@ -31379,7 +31457,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1040</v>
       </c>
@@ -31396,7 +31474,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1050</v>
       </c>
@@ -31413,7 +31491,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1060</v>
       </c>
@@ -31430,7 +31508,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1070</v>
       </c>
@@ -31447,7 +31525,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1080</v>
       </c>
@@ -31464,7 +31542,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1090</v>
       </c>
@@ -31481,7 +31559,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1100</v>
       </c>
@@ -31498,7 +31576,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1110</v>
       </c>
@@ -31515,7 +31593,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1120</v>
       </c>
@@ -31532,7 +31610,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1130</v>
       </c>
@@ -31549,7 +31627,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1140</v>
       </c>
@@ -31566,7 +31644,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1150</v>
       </c>
@@ -31583,7 +31661,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1160</v>
       </c>
@@ -31600,7 +31678,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1170</v>
       </c>
@@ -31617,7 +31695,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1180</v>
       </c>
@@ -31634,7 +31712,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1190</v>
       </c>
@@ -31651,7 +31729,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1200</v>
       </c>
@@ -31668,7 +31746,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1210</v>
       </c>
@@ -31685,7 +31763,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1220</v>
       </c>
@@ -31702,7 +31780,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1230</v>
       </c>
@@ -31719,7 +31797,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1240</v>
       </c>
@@ -31736,7 +31814,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1250</v>
       </c>
@@ -31753,7 +31831,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1260</v>
       </c>
@@ -31770,7 +31848,7 @@
         <v>5.1153849999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1270</v>
       </c>
@@ -31806,7 +31884,7 @@
         <v>0.33300000000000007</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1280</v>
       </c>
@@ -31823,7 +31901,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1290</v>
       </c>
@@ -31840,7 +31918,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1300</v>
       </c>
@@ -31857,7 +31935,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1310</v>
       </c>
@@ -31874,7 +31952,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1320</v>
       </c>
@@ -31891,7 +31969,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1330</v>
       </c>
@@ -31908,7 +31986,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1340</v>
       </c>
@@ -31925,7 +32003,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1350</v>
       </c>
@@ -31942,7 +32020,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1360</v>
       </c>
@@ -31959,7 +32037,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1370</v>
       </c>
@@ -31976,7 +32054,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1380</v>
       </c>
@@ -31993,7 +32071,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1390</v>
       </c>
@@ -32010,7 +32088,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1400</v>
       </c>
@@ -32027,7 +32105,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1410</v>
       </c>
@@ -32044,7 +32122,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1420</v>
       </c>
@@ -32061,7 +32139,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1430</v>
       </c>
@@ -32078,7 +32156,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1440</v>
       </c>
@@ -32095,7 +32173,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1450</v>
       </c>
@@ -32131,7 +32209,7 @@
         <v>0.83300000000000007</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1460</v>
       </c>
@@ -32148,7 +32226,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1470</v>
       </c>
@@ -32165,7 +32243,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1480</v>
       </c>
@@ -32182,7 +32260,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1490</v>
       </c>
@@ -32199,7 +32277,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1500</v>
       </c>
@@ -32216,7 +32294,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1510</v>
       </c>
@@ -32233,7 +32311,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1520</v>
       </c>
@@ -32250,7 +32328,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1530</v>
       </c>
@@ -32267,7 +32345,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1540</v>
       </c>
@@ -32284,7 +32362,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1550</v>
       </c>
@@ -32301,7 +32379,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1560</v>
       </c>
@@ -32318,7 +32396,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1570</v>
       </c>
@@ -32354,7 +32432,7 @@
         <v>9.302300000000005E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1580</v>
       </c>
@@ -32371,7 +32449,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1590</v>
       </c>
@@ -32388,7 +32466,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1600</v>
       </c>
@@ -32405,7 +32483,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1610</v>
       </c>
@@ -32422,7 +32500,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1620</v>
       </c>
@@ -32439,7 +32517,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1630</v>
       </c>
@@ -32456,7 +32534,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1640</v>
       </c>
@@ -32473,7 +32551,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1650</v>
       </c>
@@ -32490,7 +32568,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1660</v>
       </c>
@@ -32507,7 +32585,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1670</v>
       </c>
@@ -32524,7 +32602,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1680</v>
       </c>
@@ -32541,7 +32619,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1690</v>
       </c>
@@ -32558,7 +32636,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1700</v>
       </c>
@@ -32575,7 +32653,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1710</v>
       </c>
@@ -32592,7 +32670,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1720</v>
       </c>
@@ -32609,7 +32687,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1730</v>
       </c>
@@ -32626,7 +32704,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1740</v>
       </c>
@@ -32643,7 +32721,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1750</v>
       </c>
@@ -32660,7 +32738,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1760</v>
       </c>
@@ -32677,7 +32755,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1770</v>
       </c>
@@ -32694,7 +32772,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1780</v>
       </c>
@@ -32711,7 +32789,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1790</v>
       </c>
@@ -32728,7 +32806,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1800</v>
       </c>
@@ -32745,7 +32823,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1810</v>
       </c>
@@ -32762,7 +32840,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1820</v>
       </c>
@@ -32779,7 +32857,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1830</v>
       </c>
@@ -32796,7 +32874,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1840</v>
       </c>
@@ -32813,7 +32891,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1850</v>
       </c>
@@ -32830,7 +32908,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1860</v>
       </c>
@@ -32847,7 +32925,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1870</v>
       </c>
@@ -32864,7 +32942,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1880</v>
       </c>
@@ -32881,7 +32959,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1890</v>
       </c>
@@ -32898,7 +32976,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1900</v>
       </c>
@@ -32915,7 +32993,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1910</v>
       </c>
@@ -32932,7 +33010,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1920</v>
       </c>
@@ -32949,7 +33027,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1930</v>
       </c>
@@ -32966,7 +33044,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1940</v>
       </c>
@@ -32983,7 +33061,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1950</v>
       </c>
@@ -33000,7 +33078,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1960</v>
       </c>
@@ -33017,7 +33095,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1970</v>
       </c>
@@ -33034,7 +33112,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1980</v>
       </c>
@@ -33051,7 +33129,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1990</v>
       </c>
@@ -33068,7 +33146,7 @@
         <v>9.3022999999999995E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2000</v>
       </c>
@@ -33104,7 +33182,7 @@
         <v>5.5549999999999995E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2010</v>
       </c>
@@ -33121,7 +33199,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2020</v>
       </c>
@@ -33138,7 +33216,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2030</v>
       </c>
@@ -33155,7 +33233,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2040</v>
       </c>
@@ -33172,7 +33250,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2050</v>
       </c>
@@ -33189,7 +33267,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2060</v>
       </c>
@@ -33206,7 +33284,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2070</v>
       </c>
@@ -33223,7 +33301,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2080</v>
       </c>
@@ -33240,7 +33318,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2090</v>
       </c>
@@ -33257,7 +33335,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2100</v>
       </c>
@@ -33274,7 +33352,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2110</v>
       </c>
@@ -33291,7 +33369,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2120</v>
       </c>
@@ -33308,7 +33386,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2130</v>
       </c>
@@ -33325,7 +33403,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2140</v>
       </c>
@@ -33342,7 +33420,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2150</v>
       </c>
@@ -33359,7 +33437,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2160</v>
       </c>
@@ -33376,7 +33454,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2170</v>
       </c>
@@ -33393,7 +33471,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2180</v>
       </c>
@@ -33410,7 +33488,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2190</v>
       </c>
@@ -33427,7 +33505,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2200</v>
       </c>
@@ -33444,7 +33522,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2210</v>
       </c>
@@ -33461,7 +33539,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2220</v>
       </c>
@@ -33478,7 +33556,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2230</v>
       </c>
@@ -33495,7 +33573,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2240</v>
       </c>
@@ -33512,7 +33590,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2250</v>
       </c>
@@ -33529,7 +33607,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2260</v>
       </c>
@@ -33546,7 +33624,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2270</v>
       </c>
@@ -33563,7 +33641,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2280</v>
       </c>
@@ -33580,7 +33658,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2290</v>
       </c>
@@ -33597,7 +33675,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2300</v>
       </c>
@@ -33614,7 +33692,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2310</v>
       </c>
@@ -33631,7 +33709,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2320</v>
       </c>
@@ -33648,7 +33726,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2330</v>
       </c>
@@ -33665,7 +33743,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2340</v>
       </c>
@@ -33682,7 +33760,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2350</v>
       </c>
@@ -33699,7 +33777,7 @@
         <v>5.5550000000000002E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2360</v>
       </c>
@@ -33735,7 +33813,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2370</v>
       </c>
@@ -33752,7 +33830,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2380</v>
       </c>
@@ -33769,7 +33847,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2390</v>
       </c>
@@ -33786,7 +33864,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2400</v>
       </c>
@@ -33803,7 +33881,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2410</v>
       </c>
@@ -33820,7 +33898,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2420</v>
       </c>
@@ -33837,7 +33915,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2430</v>
       </c>
@@ -33854,7 +33932,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2440</v>
       </c>
@@ -33871,7 +33949,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2450</v>
       </c>
@@ -33888,7 +33966,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2460</v>
       </c>
@@ -33905,7 +33983,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2470</v>
       </c>
@@ -33922,7 +34000,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2480</v>
       </c>
@@ -33939,7 +34017,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2490</v>
       </c>
@@ -33956,7 +34034,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2500</v>
       </c>
@@ -33973,7 +34051,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2510</v>
       </c>
@@ -33990,7 +34068,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2520</v>
       </c>
@@ -34007,7 +34085,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2530</v>
       </c>
@@ -34024,7 +34102,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2540</v>
       </c>
@@ -34041,7 +34119,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2550</v>
       </c>
@@ -34058,7 +34136,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2560</v>
       </c>
@@ -34075,7 +34153,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2570</v>
       </c>
@@ -34092,7 +34170,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2580</v>
       </c>
@@ -34109,7 +34187,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2590</v>
       </c>
@@ -34126,7 +34204,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2600</v>
       </c>
@@ -34143,7 +34221,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2610</v>
       </c>
@@ -34160,7 +34238,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2620</v>
       </c>
@@ -34177,7 +34255,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2630</v>
       </c>
@@ -34194,7 +34272,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2640</v>
       </c>
@@ -34211,7 +34289,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2650</v>
       </c>
@@ -34228,7 +34306,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2660</v>
       </c>
@@ -34245,7 +34323,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2670</v>
       </c>
@@ -34262,7 +34340,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2680</v>
       </c>
@@ -34279,7 +34357,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2690</v>
       </c>
@@ -34296,7 +34374,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2700</v>
       </c>
@@ -34313,7 +34391,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2710</v>
       </c>
@@ -34330,7 +34408,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2720</v>
       </c>
@@ -34347,7 +34425,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2730</v>
       </c>
@@ -34364,7 +34442,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2740</v>
       </c>
@@ -34381,7 +34459,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2750</v>
       </c>
@@ -34398,7 +34476,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2760</v>
       </c>
@@ -34415,7 +34493,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2770</v>
       </c>
@@ -34432,7 +34510,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2780</v>
       </c>
@@ -34449,7 +34527,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2790</v>
       </c>
@@ -34466,7 +34544,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2800</v>
       </c>
@@ -34483,7 +34561,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2810</v>
       </c>
@@ -34500,7 +34578,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2820</v>
       </c>
@@ -34517,7 +34595,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2830</v>
       </c>
@@ -34534,7 +34612,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2840</v>
       </c>
@@ -34551,7 +34629,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2850</v>
       </c>
@@ -34568,7 +34646,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2860</v>
       </c>
@@ -34585,7 +34663,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2870</v>
       </c>
@@ -34602,7 +34680,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2880</v>
       </c>
@@ -34619,7 +34697,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2890</v>
       </c>
@@ -34636,7 +34714,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2900</v>
       </c>
@@ -34653,7 +34731,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2910</v>
       </c>
@@ -34670,7 +34748,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2920</v>
       </c>
@@ -34687,7 +34765,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2930</v>
       </c>
@@ -34704,7 +34782,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2940</v>
       </c>
@@ -34721,7 +34799,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2950</v>
       </c>
@@ -34738,7 +34816,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2960</v>
       </c>
@@ -34755,7 +34833,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2970</v>
       </c>
@@ -34772,7 +34850,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2980</v>
       </c>
@@ -34789,7 +34867,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2990</v>
       </c>
@@ -34806,7 +34884,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3000</v>
       </c>
@@ -34842,7 +34920,7 @@
         <v>0.20000000000000004</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3010</v>
       </c>
@@ -34859,7 +34937,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3020</v>
       </c>
@@ -34876,7 +34954,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3030</v>
       </c>
@@ -34893,7 +34971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3040</v>
       </c>
@@ -34910,7 +34988,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>3050</v>
       </c>
@@ -34927,7 +35005,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3060</v>
       </c>
@@ -34944,7 +35022,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3070</v>
       </c>
@@ -34961,7 +35039,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3080</v>
       </c>
@@ -34978,7 +35056,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>3090</v>
       </c>
@@ -34995,7 +35073,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3100</v>
       </c>
@@ -35012,7 +35090,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3110</v>
       </c>
@@ -35029,7 +35107,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3120</v>
       </c>
@@ -35046,7 +35124,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3130</v>
       </c>
@@ -35063,7 +35141,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3140</v>
       </c>
@@ -35080,7 +35158,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3150</v>
       </c>
@@ -35097,7 +35175,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3160</v>
       </c>
@@ -35114,7 +35192,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3170</v>
       </c>
@@ -35131,7 +35209,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3180</v>
       </c>
@@ -35148,7 +35226,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3190</v>
       </c>
@@ -35165,7 +35243,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3200</v>
       </c>
@@ -35201,7 +35279,7 @@
         <v>1.4565220000000003</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3210</v>
       </c>
@@ -35218,7 +35296,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>3220</v>
       </c>
@@ -35235,7 +35313,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3230</v>
       </c>
@@ -35252,7 +35330,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3240</v>
       </c>
@@ -35269,7 +35347,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3250</v>
       </c>
@@ -35286,7 +35364,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3260</v>
       </c>
@@ -35303,7 +35381,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3270</v>
       </c>
@@ -35320,7 +35398,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>3280</v>
       </c>
@@ -35337,7 +35415,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3290</v>
       </c>
@@ -35354,7 +35432,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>3300</v>
       </c>
@@ -35371,7 +35449,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3310</v>
       </c>
@@ -35388,7 +35466,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3320</v>
       </c>
@@ -35405,7 +35483,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>3330</v>
       </c>
@@ -35422,7 +35500,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>3340</v>
       </c>
@@ -35439,7 +35517,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3350</v>
       </c>
@@ -35456,7 +35534,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3360</v>
       </c>
@@ -35473,7 +35551,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>3370</v>
       </c>
@@ -35490,7 +35568,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3380</v>
       </c>
@@ -35507,7 +35585,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3390</v>
       </c>
@@ -35524,7 +35602,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3400</v>
       </c>
@@ -35541,7 +35619,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>3410</v>
       </c>
@@ -35558,7 +35636,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3420</v>
       </c>
@@ -35575,7 +35653,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>3430</v>
       </c>
@@ -35592,7 +35670,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3440</v>
       </c>
@@ -35609,7 +35687,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>3450</v>
       </c>
@@ -35626,7 +35704,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>3460</v>
       </c>
@@ -35643,7 +35721,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3470</v>
       </c>
@@ -35660,7 +35738,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3480</v>
       </c>
@@ -35677,7 +35755,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3490</v>
       </c>
@@ -35694,7 +35772,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3500</v>
       </c>
@@ -35711,7 +35789,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>3510</v>
       </c>
@@ -35728,7 +35806,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3520</v>
       </c>
@@ -35745,7 +35823,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3530</v>
       </c>
@@ -35762,7 +35840,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3540</v>
       </c>
@@ -35779,7 +35857,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>3550</v>
       </c>
@@ -35796,7 +35874,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3560</v>
       </c>
@@ -35813,7 +35891,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3570</v>
       </c>
@@ -35830,7 +35908,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>3580</v>
       </c>
@@ -35847,7 +35925,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3590</v>
       </c>
@@ -35864,7 +35942,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3600</v>
       </c>
@@ -35881,7 +35959,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>3610</v>
       </c>
@@ -35898,7 +35976,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3620</v>
       </c>
@@ -35915,7 +35993,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>3630</v>
       </c>
@@ -35932,7 +36010,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>3640</v>
       </c>
@@ -35949,7 +36027,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>3650</v>
       </c>
@@ -35966,7 +36044,7 @@
         <v>1.4565220000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>3660</v>
       </c>
@@ -36002,7 +36080,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>3670</v>
       </c>
@@ -36019,7 +36097,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3680</v>
       </c>
@@ -36036,7 +36114,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>3690</v>
       </c>
@@ -36053,7 +36131,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>3700</v>
       </c>
@@ -36070,7 +36148,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>3710</v>
       </c>
@@ -36087,7 +36165,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>3720</v>
       </c>
@@ -36104,7 +36182,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>3730</v>
       </c>
@@ -36121,7 +36199,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3740</v>
       </c>
@@ -36138,7 +36216,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3750</v>
       </c>
@@ -36155,7 +36233,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3760</v>
       </c>
@@ -36172,7 +36250,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3770</v>
       </c>
@@ -36189,7 +36267,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3780</v>
       </c>
@@ -36206,7 +36284,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3790</v>
       </c>
@@ -36223,7 +36301,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>3800</v>
       </c>
@@ -36240,7 +36318,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3810</v>
       </c>
@@ -36257,7 +36335,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>3820</v>
       </c>
@@ -36274,7 +36352,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3830</v>
       </c>
@@ -36291,7 +36369,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3840</v>
       </c>
@@ -36308,7 +36386,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>3850</v>
       </c>
@@ -36325,7 +36403,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>3860</v>
       </c>
@@ -36342,7 +36420,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3870</v>
       </c>
@@ -36359,7 +36437,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>3880</v>
       </c>
@@ -36376,7 +36454,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3890</v>
       </c>
@@ -36393,7 +36471,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>3900</v>
       </c>
@@ -36410,7 +36488,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>3910</v>
       </c>
@@ -36427,7 +36505,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>3920</v>
       </c>
@@ -36444,7 +36522,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>3930</v>
       </c>
@@ -36461,7 +36539,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>3940</v>
       </c>
@@ -36478,7 +36556,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>3950</v>
       </c>
@@ -36495,7 +36573,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>3960</v>
       </c>
@@ -36512,7 +36590,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>3970</v>
       </c>
@@ -36529,7 +36607,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3980</v>
       </c>
@@ -36546,7 +36624,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>3990</v>
       </c>
@@ -36563,7 +36641,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>4000</v>
       </c>
@@ -36580,7 +36658,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4010</v>
       </c>
@@ -36597,7 +36675,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>4020</v>
       </c>
@@ -36614,7 +36692,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>4030</v>
       </c>
@@ -36631,7 +36709,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>4040</v>
       </c>
@@ -36648,7 +36726,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>4050</v>
       </c>
@@ -36665,7 +36743,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>4060</v>
       </c>
@@ -36682,7 +36760,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>4070</v>
       </c>
@@ -36699,7 +36777,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4080</v>
       </c>
@@ -36716,7 +36794,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>4090</v>
       </c>
@@ -36733,7 +36811,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>4100</v>
       </c>
@@ -36750,7 +36828,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4110</v>
       </c>
@@ -36767,7 +36845,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>4120</v>
       </c>
@@ -36784,7 +36862,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4130</v>
       </c>
@@ -36801,7 +36879,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>4140</v>
       </c>
@@ -36818,7 +36896,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>4150</v>
       </c>
@@ -36835,7 +36913,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4160</v>
       </c>
@@ -36852,7 +36930,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4170</v>
       </c>
@@ -36869,7 +36947,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>4180</v>
       </c>
@@ -36886,7 +36964,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>4190</v>
       </c>
@@ -36903,7 +36981,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4200</v>
       </c>
@@ -36920,7 +36998,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>4210</v>
       </c>
@@ -36937,7 +37015,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>4220</v>
       </c>
@@ -36954,7 +37032,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>4230</v>
       </c>
@@ -36971,7 +37049,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4240</v>
       </c>
@@ -36988,7 +37066,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>4250</v>
       </c>
@@ -37005,7 +37083,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>4260</v>
       </c>
@@ -37022,7 +37100,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>4270</v>
       </c>
@@ -37039,7 +37117,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>4280</v>
       </c>
@@ -37056,7 +37134,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>4290</v>
       </c>
@@ -37073,7 +37151,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4300</v>
       </c>
@@ -37090,7 +37168,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4310</v>
       </c>
@@ -37107,7 +37185,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>4320</v>
       </c>
@@ -37124,7 +37202,7 @@
         <v>5.8824000000000001E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>4330</v>
       </c>
